--- a/엑셀/수식_셀참조.xlsx
+++ b/엑셀/수식_셀참조.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019합본호개정판\Data\3장\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kjw\QGIS\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424314CA-EF1B-4B0B-9FDF-FF1BCE430B4B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63A198A-309C-43DD-9733-524A0E12923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="0" windowWidth="27810" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="상대참조" sheetId="5" r:id="rId1"/>
@@ -23,6 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>수량</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -321,6 +327,10 @@
   </si>
   <si>
     <t>2020년 운임 인상표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매금액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +345,7 @@
     <numFmt numFmtId="178" formatCode="_-[$₩-412]* #,##0_-;\-[$₩-412]* #,##0_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -551,40 +561,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -848,6 +828,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,14 +864,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -890,75 +877,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,40 +948,40 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,6 +990,9 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,8 +1017,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1354,27 +1340,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1382,64 +1374,97 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="15" t="s">
+      <c r="F3" s="59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="33">
         <v>230</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>200</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="15" t="s">
+      <c r="D4" s="33">
+        <f>B4-C4</f>
+        <v>30</v>
+      </c>
+      <c r="E4" s="34">
+        <f>C4/B4</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="F4" s="60">
+        <f>C4*G$1</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="33">
         <v>220</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>200</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="D5" s="33">
+        <f t="shared" ref="D5:D16" si="0">B5-C5</f>
+        <v>20</v>
+      </c>
+      <c r="E5" s="34">
+        <f t="shared" ref="E5:E16" si="1">C5/B5</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F5" s="60">
+        <f t="shared" ref="F5:F16" si="2">C5*G$1</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="33">
         <v>500</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>450</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="15" t="s">
+      <c r="D6" s="33">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="60">
+        <f t="shared" si="2"/>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="3">
@@ -1448,50 +1473,90 @@
       <c r="C7" s="3">
         <v>230</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="15" t="s">
+      <c r="D7" s="33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="34">
+        <f t="shared" si="1"/>
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="F7" s="60">
+        <f t="shared" si="2"/>
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="33">
         <v>320</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>320</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="15" t="s">
+      <c r="D8" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="60">
+        <f t="shared" si="2"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="33">
         <v>120</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>100</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="15" t="s">
+      <c r="D9" s="33">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F9" s="60">
+        <f t="shared" si="2"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="33">
         <v>180</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>180</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="15" t="s">
+      <c r="D10" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="60">
+        <f t="shared" si="2"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3">
@@ -1500,11 +1565,21 @@
       <c r="C11" s="3">
         <v>200</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="15" t="s">
+      <c r="D11" s="33">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="60">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="3">
@@ -1513,50 +1588,90 @@
       <c r="C12" s="3">
         <v>200</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="15" t="s">
+      <c r="D12" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="60">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="33">
         <v>430</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>400</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="15" t="s">
+      <c r="D13" s="33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" si="1"/>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="F13" s="60">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="33">
         <v>230</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>200</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="15" t="s">
+      <c r="D14" s="33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E14" s="34">
+        <f t="shared" si="1"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="F14" s="60">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="33">
         <v>320</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>150</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="15" t="s">
+      <c r="D15" s="33">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" si="1"/>
+        <v>0.46875</v>
+      </c>
+      <c r="F15" s="60">
+        <f t="shared" si="2"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3">
@@ -1565,11 +1680,21 @@
       <c r="C16" s="3">
         <v>80</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="33">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="34">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="60">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:E16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E16">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="1">
@@ -1585,11 +1710,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="2" customWidth="1"/>
@@ -1598,231 +1723,276 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" thickBot="1">
-      <c r="C2" s="23" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="23">
         <v>1150</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1"/>
-    <row r="4" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A4" s="46" t="s">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" thickTop="1">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="19">
         <v>300</v>
       </c>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="17" t="s">
+      <c r="D5" s="24">
+        <f>D$2*B5*C5</f>
+        <v>1587000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>4.2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>400</v>
       </c>
-      <c r="D6" s="28"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="17" t="s">
+      <c r="D6" s="24">
+        <f t="shared" ref="D6:D19" si="0">D$2*B6*C6</f>
+        <v>1932000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>4.5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>500</v>
       </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="17" t="s">
+      <c r="D7" s="24">
+        <f t="shared" si="0"/>
+        <v>2587500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>5.2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>150</v>
       </c>
-      <c r="D8" s="28"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="17" t="s">
+      <c r="D8" s="24">
+        <f t="shared" si="0"/>
+        <v>897000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>100</v>
       </c>
-      <c r="D9" s="28"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="17" t="s">
+      <c r="D9" s="24">
+        <f t="shared" si="0"/>
+        <v>529000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>200</v>
       </c>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="17" t="s">
+      <c r="D10" s="24">
+        <f t="shared" si="0"/>
+        <v>1173000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>6.2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>100</v>
       </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="17" t="s">
+      <c r="D11" s="24">
+        <f t="shared" si="0"/>
+        <v>713000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="13">
         <v>5.7</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>120</v>
       </c>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="17" t="s">
+      <c r="D12" s="24">
+        <f t="shared" si="0"/>
+        <v>786600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>4.8</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>100</v>
       </c>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="17" t="s">
+      <c r="D13" s="24">
+        <f t="shared" si="0"/>
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="13">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>500</v>
       </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="17" t="s">
+      <c r="D14" s="24">
+        <f t="shared" si="0"/>
+        <v>2530000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>4.7</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>200</v>
       </c>
-      <c r="D15" s="28"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="17" t="s">
+      <c r="D15" s="24">
+        <f t="shared" si="0"/>
+        <v>1081000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>5.4</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>100</v>
       </c>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="17" t="s">
+      <c r="D16" s="24">
+        <f t="shared" si="0"/>
+        <v>621000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>4.2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>50</v>
       </c>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="17" t="s">
+      <c r="D17" s="24">
+        <f t="shared" si="0"/>
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>4.7</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>50</v>
       </c>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickBot="1">
-      <c r="A19" s="18" t="s">
+      <c r="D18" s="24">
+        <f t="shared" si="0"/>
+        <v>270250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="22">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="16">
         <v>100</v>
       </c>
-      <c r="D19" s="29"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="D19" s="24">
+        <f t="shared" si="0"/>
+        <v>586500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1842,136 +2012,136 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1"/>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="45">
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="40">
         <v>0.03</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="40">
         <v>0.05</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="40">
         <v>0.08</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="40">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="50">
         <v>55000</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="50">
         <v>65000</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="50">
         <v>70000</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="50">
         <v>70000</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="50">
         <v>75000</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="50">
         <v>75000</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="A11" s="40" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="63">
+      <c r="B11" s="50">
         <v>100000</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1990,11 +2160,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="2" bestFit="1" customWidth="1"/>
@@ -2005,236 +2175,236 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" thickBot="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="25">
         <v>3500</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="26">
         <v>0.15</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A4" s="43" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="27">
         <v>0.1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="46" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>12</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>83000</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="33" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>10</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>156000</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="33" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="11">
         <v>15</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>246000</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="33" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>28000</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="33" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>15</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>352000</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="33" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="11">
         <v>15</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>28000</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="35"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="33" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>128000</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="35"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="33" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="11">
         <v>5</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>78000</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="33" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="11">
         <v>20</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>36000</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="33" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="11">
         <v>10</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>543000</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A17" s="34" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="31">
         <v>10</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <v>632000</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
     </row>
   </sheetData>
-  <sortState ref="A7:F17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F17">
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="1">
